--- a/medicine/Sexualité et sexologie/Petra_De_Sutter/Petra_De_Sutter.xlsx
+++ b/medicine/Sexualité et sexologie/Petra_De_Sutter/Petra_De_Sutter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Petra De Sutter, née le 10 juin 1963 à Audenarde (Flandre-Orientale), est une professeure de gynécologie et une femme politique belge flamande.
@@ -516,18 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Petra De Sutter naît le 10 juin 1963 à Audenarde, en Flandre-Orientale. Déclarée de sexe masculin à sa naissance, elle a, dès son plus jeune âge, le sentiment que cela ne lui correspond pas. Elle effectue une transition de genre dans les années 2000[1], vers l'âge de 40 ans[2]. Elle fait son coming out public en 2014[3].
-Formation et carrière médicale
-Petra De Sutter obtient son diplôme de docteur en médecine de l'université de Gand en 1987, puis, en 1991, un doctorat en sciences biomédicales, avant de se rendre à Chicago pendant deux ans pour mener des recherches fondamentales sur la génétique des ovocytes (humains et de souris)[4].
-Après une spécialisation en gynécologie, elle présente l'agrégation de l'enseignement supérieur en 1994 et devient chargée de cours dès 2000, puis professeure titulaire. À partir de son entrée au Sénat en 2014, elle demeure professeure à temps partiel et directrice de département de médecine de la reproduction de l'hôpital universitaire de Gand[4].
-Petra De Sutter décroche la première place au classement Strafste Gentenaar, dans la catégorie universitaire[5] et le prix De Maakbare Mens (nl), récompense pour les travaux socioculturels sur la bioéthique, décernée à la fois pour son travail scientifique et ses engagements politiques[6].
-Carrière politique
-À l'occasion des élections européennes de 2014, Petra De Sutter figure en deuxième position sur la liste du parti écologiste néerlandophone Groen, derrière l'eurodéputé sortant Bart Staes. Toutefois, le score de la liste ne lui permet pas d'être élue[7].
-Elle est alors cooptée au Sénat belge et devient sénatrice, ce qui fait d'elle la première Belge transgenre à devenir parlementaire ; ce n'est toutefois qu'après avoir été désignée sénatrice qu'elle fait son coming out[3]. Elle est aussi l'une des premières personnalités politiques transgenres en Europe à occuper un tel mandat[8]. Petra De Sutter s'implique particulièrement au sein de l'Assemblée parlementaire du Conseil de l'Europe. Elle y est notamment rapporteuse sur les droits des enfants dans le cadre de la gestation pour autrui[9], l'usage des nouvelles techniques de modification génétiques chez l'humain[10] ou encore sur les obligations des États de protéger les vies en mer[11]. Engagée pour les droits des femmes et des personnes LGBTI+, elle préside le Groupe de travail sur les femmes[12].
-En 2018, elle est tête de liste de Groen dans la commune de Horebeke à l'occasion des élections communales[13], et est élue conseillère communale[14].
-Petra de Sutter fut aussi candidate afin de devenir l'une des deux têtes de liste du Parti vert européen à l'occasion des élections européennes de 2019. Elle obtient un bon score, mais il ne lui permit pas de l'emporter face à Ska Keller et Bas Eickhout, tous deux députés européens sortants[15]. Tête de liste du parti Groen aux élections européennes de 2019[16], elle est élue députée européenne et siège au sein du groupe Verts/ALE. Elle préside la commission du Marché intérieur et de la Protection du consommateur[17].
-Le 1er octobre 2020, elle prête serment devant le roi comme vice-Première ministre du gouvernement De Croo. Elle hérite de la compétence de la fonction publique et des entreprises publiques. Elle devient la première personne transgenre ministre en Europe[18],[19],[20],[21],[22],[23]. À la suite de cette nomination, elle quitte son mandat de conseillère de la commune d'Horebeke[14].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petra De Sutter naît le 10 juin 1963 à Audenarde, en Flandre-Orientale. Déclarée de sexe masculin à sa naissance, elle a, dès son plus jeune âge, le sentiment que cela ne lui correspond pas. Elle effectue une transition de genre dans les années 2000, vers l'âge de 40 ans. Elle fait son coming out public en 2014.
 </t>
         </is>
       </c>
@@ -553,10 +560,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation et carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petra De Sutter obtient son diplôme de docteur en médecine de l'université de Gand en 1987, puis, en 1991, un doctorat en sciences biomédicales, avant de se rendre à Chicago pendant deux ans pour mener des recherches fondamentales sur la génétique des ovocytes (humains et de souris).
+Après une spécialisation en gynécologie, elle présente l'agrégation de l'enseignement supérieur en 1994 et devient chargée de cours dès 2000, puis professeure titulaire. À partir de son entrée au Sénat en 2014, elle demeure professeure à temps partiel et directrice de département de médecine de la reproduction de l'hôpital universitaire de Gand.
+Petra De Sutter décroche la première place au classement Strafste Gentenaar, dans la catégorie universitaire et le prix De Maakbare Mens (nl), récompense pour les travaux socioculturels sur la bioéthique, décernée à la fois pour son travail scientifique et ses engagements politiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Petra_De_Sutter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petra_De_Sutter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion des élections européennes de 2014, Petra De Sutter figure en deuxième position sur la liste du parti écologiste néerlandophone Groen, derrière l'eurodéputé sortant Bart Staes. Toutefois, le score de la liste ne lui permet pas d'être élue.
+Elle est alors cooptée au Sénat belge et devient sénatrice, ce qui fait d'elle la première Belge transgenre à devenir parlementaire ; ce n'est toutefois qu'après avoir été désignée sénatrice qu'elle fait son coming out. Elle est aussi l'une des premières personnalités politiques transgenres en Europe à occuper un tel mandat. Petra De Sutter s'implique particulièrement au sein de l'Assemblée parlementaire du Conseil de l'Europe. Elle y est notamment rapporteuse sur les droits des enfants dans le cadre de la gestation pour autrui, l'usage des nouvelles techniques de modification génétiques chez l'humain ou encore sur les obligations des États de protéger les vies en mer. Engagée pour les droits des femmes et des personnes LGBTI+, elle préside le Groupe de travail sur les femmes.
+En 2018, elle est tête de liste de Groen dans la commune de Horebeke à l'occasion des élections communales, et est élue conseillère communale.
+Petra de Sutter fut aussi candidate afin de devenir l'une des deux têtes de liste du Parti vert européen à l'occasion des élections européennes de 2019. Elle obtient un bon score, mais il ne lui permit pas de l'emporter face à Ska Keller et Bas Eickhout, tous deux députés européens sortants. Tête de liste du parti Groen aux élections européennes de 2019, elle est élue députée européenne et siège au sein du groupe Verts/ALE. Elle préside la commission du Marché intérieur et de la Protection du consommateur.
+Le 1er octobre 2020, elle prête serment devant le roi comme vice-Première ministre du gouvernement De Croo. Elle hérite de la compétence de la fonction publique et des entreprises publiques. Elle devient la première personne transgenre ministre en Europe. À la suite de cette nomination, elle quitte son mandat de conseillère de la commune d'Horebeke.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Petra_De_Sutter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petra_De_Sutter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(nl) co-écrit avec Elke Lahousse, (Over)Leven, Manteau, 2015, 256 p. (ISBN 978-9-0223-3221-4)</t>
         </is>
